--- a/app/src/main/assets/Physical Education 3.xlsx
+++ b/app/src/main/assets/Physical Education 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02B3FFF-0B2F-47CB-973C-20773BA0C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC59B8-975C-4B87-8E39-D417A6BDF8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
   <si>
     <t>Arnis, also known as Eskrima, Kali, Garrote, is a sport that involves the use of swinging and twirling movements, accompanied by striking, thrusting, and parrying techniques for defense and offense.</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Individual and Dual Sports</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +597,7 @@
     <col min="6" max="6" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -616,8 +619,11 @@
       <c r="G1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -639,8 +645,11 @@
       <c r="G2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -662,8 +671,11 @@
       <c r="G3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -685,8 +697,11 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -708,8 +723,11 @@
       <c r="G5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -731,8 +749,11 @@
       <c r="G6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -754,8 +775,11 @@
       <c r="G7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -777,8 +801,11 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -800,8 +827,11 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -822,6 +852,9 @@
       </c>
       <c r="G10" t="s">
         <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60103153-D76C-4EC4-8CA2-84589F5A6773}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,7 +877,7 @@
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -854,8 +887,11 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -865,8 +901,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -876,8 +915,11 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -887,8 +929,11 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -898,8 +943,11 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -909,8 +957,11 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -920,8 +971,11 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -931,8 +985,11 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -942,8 +999,11 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -952,6 +1012,9 @@
       </c>
       <c r="C10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AB2989-9BA9-44AC-B204-B37F4C0FAB40}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +1036,7 @@
     <col min="2" max="2" width="174.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -983,8 +1046,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -994,8 +1060,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1005,8 +1074,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1016,8 +1088,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1027,8 +1102,11 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1038,8 +1116,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1049,8 +1130,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1060,8 +1144,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1071,8 +1158,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1081,6 +1171,9 @@
       </c>
       <c r="C10" t="b">
         <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
